--- a/物品单.xlsx
+++ b/物品单.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C9F207B6-2313-4EFE-A945-88A9DE7473CE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="指标对应器件" sheetId="2" r:id="rId1"/>
     <sheet name="附加物品" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>DHT22</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,14 +164,18 @@
   </si>
   <si>
     <t>链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,21 +504,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83FC357-1707-487D-BA79-963F95547BCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="30.875" customWidth="1"/>
     <col min="2" max="2" width="42.875" customWidth="1"/>
     <col min="3" max="3" width="72.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -526,7 +529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="2" customFormat="1" ht="65.099999999999994" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -537,7 +540,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="2" customFormat="1" ht="65.099999999999994" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -548,7 +551,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="2" customFormat="1" ht="65.099999999999994" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -557,7 +560,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" s="2" customFormat="1" ht="65.099999999999994" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -566,7 +569,7 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="2" customFormat="1" ht="65.099999999999994" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -577,7 +580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="2" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" s="2" customFormat="1" ht="65.099999999999994" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -588,7 +591,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="2" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" s="2" customFormat="1" ht="65.099999999999994" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
@@ -599,7 +602,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" s="2" customFormat="1" ht="65.099999999999994" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -610,7 +613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="2" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" s="2" customFormat="1" ht="65.099999999999994" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -619,34 +622,38 @@
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:3" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="50.1" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="50.1" customHeight="1"/>
+    <row r="13" spans="1:3" s="2" customFormat="1" ht="50.1" customHeight="1">
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" ht="50.1" customHeight="1"/>
+    <row r="15" spans="1:3" ht="50.1" customHeight="1"/>
+    <row r="16" spans="1:3" ht="50.1" customHeight="1"/>
+    <row r="17" ht="50.1" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" location="detail&amp;qq-pf-to=pcqq.group" xr:uid="{0BD3586C-6E57-406F-BF62-148CD9FBA9A5}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{F6033B81-C756-4E50-821B-B7B9F431DF29}"/>
+    <hyperlink ref="C6" r:id="rId1" location="detail&amp;qq-pf-to=pcqq.group"/>
+    <hyperlink ref="C2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549D507C-43C5-4BDD-B92C-9FBF6D5E4E3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="26" style="4" customWidth="1"/>
     <col min="2" max="2" width="18.75" style="4" customWidth="1"/>
@@ -654,7 +661,7 @@
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
@@ -665,7 +672,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="30" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -676,7 +683,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="30" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -687,7 +694,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="30" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
@@ -695,11 +702,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:3" ht="30" customHeight="1"/>
+    <row r="6" spans="1:3" ht="30" customHeight="1"/>
+    <row r="7" spans="1:3" ht="30" customHeight="1"/>
+    <row r="8" spans="1:3" ht="30" customHeight="1"/>
+    <row r="9" spans="1:3" ht="30" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
